--- a/data/predictions/race/aff_act_hrt_wht/leveled/leanrepublican.xlsx
+++ b/data/predictions/race/aff_act_hrt_wht/leveled/leanrepublican.xlsx
@@ -706,7 +706,7 @@
         <v>2019</v>
       </c>
       <c r="B34">
-        <v>0.5330692131370146</v>
+        <v>0.4619101753186601</v>
       </c>
       <c r="D34">
         <v>0.166769832483264</v>
@@ -720,7 +720,7 @@
         <v>2020</v>
       </c>
       <c r="B35">
-        <v>0.5330692131370146</v>
+        <v>0.4548472377517027</v>
       </c>
       <c r="D35">
         <v>0.1530909336133907</v>
@@ -734,7 +734,7 @@
         <v>2021</v>
       </c>
       <c r="B36">
-        <v>0.5330692131370146</v>
+        <v>0.4364198070641606</v>
       </c>
       <c r="D36">
         <v>0.09049855644843847</v>
@@ -748,7 +748,7 @@
         <v>2022</v>
       </c>
       <c r="B37">
-        <v>0.5330692131370146</v>
+        <v>0.5345293964576067</v>
       </c>
       <c r="D37">
         <v>0.060558089211677</v>
@@ -762,7 +762,7 @@
         <v>2023</v>
       </c>
       <c r="B38">
-        <v>0.5330692131370146</v>
+        <v>0.5831432761325945</v>
       </c>
       <c r="D38">
         <v>0.09441642599115227</v>
@@ -776,7 +776,7 @@
         <v>2024</v>
       </c>
       <c r="B39">
-        <v>0.5330692131370146</v>
+        <v>0.4529525049769128</v>
       </c>
       <c r="D39">
         <v>0.1249751305151532</v>
